--- a/data/trans_dic/P28C_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P28C_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha pesado más respecto al último mes</t>
+          <t>Población que ha pesado más respecto al último mes (tasa de respuesta: 99,48%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>32,17%</t>
+          <t>39,27%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35,2%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>45,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>28,26%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>28,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>25,09%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>35,25%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>33,51%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20,02%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10,11%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,49; 34,18</t>
+          <t>10,96; 39,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,6; 50,29</t>
+          <t>18,25; 70,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,43; 23,81</t>
+          <t>3,16; 22,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,73; 44,0</t>
+          <t>1,42; 21,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,76; 28,78</t>
+          <t>31,5; 59,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 22,91</t>
+          <t>17,67; 44,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,14; 36,79</t>
+          <t>16,82; 43,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,74; 35,95</t>
+          <t>3,48; 27,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,8; 20,43</t>
+          <t>24,21; 46,93</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22,54; 53,62</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11,59; 30,6</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>4,62; 19,56</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,57%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>21,91%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>28,86%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>17,78%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>12,33%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16,96%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,34; 37,87</t>
+          <t>21,57; 42,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,02; 23,6</t>
+          <t>11,83; 31,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,16; 21,65</t>
+          <t>4,81; 12,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,85; 32,42</t>
+          <t>7,22; 18,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,35; 25,42</t>
+          <t>21,67; 35,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,57; 22,35</t>
+          <t>11,61; 22,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,53; 33,27</t>
+          <t>11,3; 22,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,46; 22,61</t>
+          <t>16,13; 28,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,95; 19,62</t>
+          <t>23,79; 35,34</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13,58; 25,12</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>9,14; 16,21</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>12,74; 21,07</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>28,78%</t>
+          <t>29,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>35,28%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>37,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>32,3%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>23,98%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>34,31%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>13,65%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>15,96%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17,07%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,11; 35,77</t>
+          <t>22,21; 39,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,8; 19,18</t>
+          <t>7,11; 20,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,15; 20,29</t>
+          <t>10,14; 24,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,18; 41,54</t>
+          <t>5,22; 16,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,18; 19,31</t>
+          <t>30,14; 45,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,77; 24,42</t>
+          <t>9,84; 20,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,75; 36,74</t>
+          <t>11,7; 23,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,63; 17,4</t>
+          <t>17,44; 33,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,61; 20,84</t>
+          <t>29,08; 40,6</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>10,35; 18,24</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11,82; 20,45</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12,58; 22,52</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>28,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,7; 33,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,46; 23,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,77; 19,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,21; 35,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,45; 21,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,28; 20,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,38; 33,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,14; 20,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,38; 18,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>29,05%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19,37%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11,28%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10,75%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>34,38%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>17,39%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18,19%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20,83%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>31,93%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18,34%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14,83%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>15,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>23,82; 36,56</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>13,47; 28,16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>8,01; 15,05</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7,25; 14,58</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>30,05; 39,53</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13,61; 21,08</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14,53; 22,21</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16,92; 25,68</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>28,32; 36,18</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>15,18; 23,31</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>12,32; 17,79</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12,91; 18,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha pesado más respecto al último mes (tasa de respuesta: 99,48%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>31530</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>41419</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12422</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15829</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>63070</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>32636</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>34931</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19794</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>94600</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>74055</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>47354</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>35623</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>14131; 50423</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>19242; 74182</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3605; 26045</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2473; 37171</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>43938; 82914</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20404; 51923</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20583; 52910</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6216; 48425</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>64964; 125933</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>49814; 118470</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>27403; 72384</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16273; 68939</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>123483</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>71055</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>33452</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>61797</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>130266</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>62873</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>61165</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>107207</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>253748</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>133928</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>94617</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>169004</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>89450; 175984</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>44508; 118218</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>18935; 51170</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>36601; 95060</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>100643; 162941</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>43737; 85804</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>42186; 82583</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>78921; 138241</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>209142; 310663</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>102256; 189195</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>70142; 124355</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>126928; 209960</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>99618</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>35532</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>42297</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>33391</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>161564</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>50038</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>53612</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>92182</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>261182</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>85571</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>95909</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>125573</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>73928; 130821</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20086; 56580</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>27731; 66411</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18317; 56604</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>129134; 195211</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>33906; 70076</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>38296; 75435</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>67022; 129749</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>221404; 309057</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>64895; 114347</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>71010; 122860</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>92524; 165654</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>254630</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>148006</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>88171</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>111018</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>354899</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>145548</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>149708</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>219182</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>609530</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>293554</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>237879</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>330200</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>208804; 320431</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>102915; 215141</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>62589; 117599</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>74865; 150505</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>310249; 408108</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>113918; 176388</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>119576; 182808</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>178009; 270207</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>540565; 690538</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>243034; 373258</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>197718; 285393</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>269202; 390669</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
